--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Il15-Il2rb.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Il15-Il2rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.659206210436929</v>
+        <v>10.27738566666667</v>
       </c>
       <c r="H2">
-        <v>8.659206210436929</v>
+        <v>30.832157</v>
       </c>
       <c r="I2">
-        <v>0.3557467864768813</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="J2">
-        <v>0.3557467864768813</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.633266537060987</v>
+        <v>0.150991</v>
       </c>
       <c r="N2">
-        <v>0.633266537060987</v>
+        <v>0.452973</v>
       </c>
       <c r="O2">
-        <v>0.6596760928100225</v>
+        <v>0.1197553672373143</v>
       </c>
       <c r="P2">
-        <v>0.6596760928100225</v>
+        <v>0.1197553672373143</v>
       </c>
       <c r="Q2">
-        <v>5.483585530580386</v>
+        <v>1.551792739195667</v>
       </c>
       <c r="R2">
-        <v>5.483585530580386</v>
+        <v>13.966134652761</v>
       </c>
       <c r="S2">
-        <v>0.2346776501327904</v>
+        <v>0.04276704471125249</v>
       </c>
       <c r="T2">
-        <v>0.2346776501327904</v>
+        <v>0.0427670447112525</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.659206210436929</v>
+        <v>10.27738566666667</v>
       </c>
       <c r="H3">
-        <v>8.659206210436929</v>
+        <v>30.832157</v>
       </c>
       <c r="I3">
-        <v>0.3557467864768813</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="J3">
-        <v>0.3557467864768813</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.326699337044684</v>
+        <v>0.6587456666666667</v>
       </c>
       <c r="N3">
-        <v>0.326699337044684</v>
+        <v>1.976237</v>
       </c>
       <c r="O3">
-        <v>0.3403239071899775</v>
+        <v>0.5224704070286049</v>
       </c>
       <c r="P3">
-        <v>0.3403239071899775</v>
+        <v>0.522470407028605</v>
       </c>
       <c r="Q3">
-        <v>2.828956928282955</v>
+        <v>6.770183272578778</v>
       </c>
       <c r="R3">
-        <v>2.828956928282955</v>
+        <v>60.931649453209</v>
       </c>
       <c r="S3">
-        <v>0.1210691363440909</v>
+        <v>0.1865846665011634</v>
       </c>
       <c r="T3">
-        <v>0.1210691363440909</v>
+        <v>0.1865846665011635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.70167330984932</v>
+        <v>10.27738566666667</v>
       </c>
       <c r="H4">
-        <v>1.70167330984932</v>
+        <v>30.832157</v>
       </c>
       <c r="I4">
-        <v>0.06990996598310924</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="J4">
-        <v>0.06990996598310924</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.633266537060987</v>
+        <v>0.3997936666666667</v>
       </c>
       <c r="N4">
-        <v>0.633266537060987</v>
+        <v>1.199381</v>
       </c>
       <c r="O4">
-        <v>0.6596760928100225</v>
+        <v>0.3170880209470702</v>
       </c>
       <c r="P4">
-        <v>0.6596760928100225</v>
+        <v>0.3170880209470703</v>
       </c>
       <c r="Q4">
-        <v>1.077612764137387</v>
+        <v>4.10883369942411</v>
       </c>
       <c r="R4">
-        <v>1.077612764137387</v>
+        <v>36.979503294817</v>
       </c>
       <c r="S4">
-        <v>0.04611793320821908</v>
+        <v>0.1132384951262586</v>
       </c>
       <c r="T4">
-        <v>0.04611793320821908</v>
+        <v>0.1132384951262586</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.70167330984932</v>
+        <v>10.27738566666667</v>
       </c>
       <c r="H5">
-        <v>1.70167330984932</v>
+        <v>30.832157</v>
       </c>
       <c r="I5">
-        <v>0.06990996598310924</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="J5">
-        <v>0.06990996598310924</v>
+        <v>0.3571200664977529</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.326699337044684</v>
+        <v>0.05129833333333333</v>
       </c>
       <c r="N5">
-        <v>0.326699337044684</v>
+        <v>0.153895</v>
       </c>
       <c r="O5">
-        <v>0.3403239071899775</v>
+        <v>0.04068620478701045</v>
       </c>
       <c r="P5">
-        <v>0.3403239071899775</v>
+        <v>0.04068620478701045</v>
       </c>
       <c r="Q5">
-        <v>0.555935542194406</v>
+        <v>0.5272127557238888</v>
       </c>
       <c r="R5">
-        <v>0.555935542194406</v>
+        <v>4.744914801515</v>
       </c>
       <c r="S5">
-        <v>0.02379203277489015</v>
+        <v>0.01452986015907836</v>
       </c>
       <c r="T5">
-        <v>0.02379203277489015</v>
+        <v>0.01452986015907836</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.4398105811647</v>
+        <v>1.987132666666667</v>
       </c>
       <c r="H6">
-        <v>13.4398105811647</v>
+        <v>5.961398</v>
       </c>
       <c r="I6">
-        <v>0.5521486968799278</v>
+        <v>0.06904917000064482</v>
       </c>
       <c r="J6">
-        <v>0.5521486968799278</v>
+        <v>0.06904917000064482</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.633266537060987</v>
+        <v>0.150991</v>
       </c>
       <c r="N6">
-        <v>0.633266537060987</v>
+        <v>0.452973</v>
       </c>
       <c r="O6">
-        <v>0.6596760928100225</v>
+        <v>0.1197553672373143</v>
       </c>
       <c r="P6">
-        <v>0.6596760928100225</v>
+        <v>0.1197553672373143</v>
       </c>
       <c r="Q6">
-        <v>8.510982305489781</v>
+        <v>0.3000391484726667</v>
       </c>
       <c r="R6">
-        <v>8.510982305489781</v>
+        <v>2.700352336254</v>
       </c>
       <c r="S6">
-        <v>0.3642392950078963</v>
+        <v>0.008269008710858967</v>
       </c>
       <c r="T6">
-        <v>0.3642392950078963</v>
+        <v>0.008269008710858967</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.4398105811647</v>
+        <v>1.987132666666667</v>
       </c>
       <c r="H7">
-        <v>13.4398105811647</v>
+        <v>5.961398</v>
       </c>
       <c r="I7">
-        <v>0.5521486968799278</v>
+        <v>0.06904917000064482</v>
       </c>
       <c r="J7">
-        <v>0.5521486968799278</v>
+        <v>0.06904917000064482</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.326699337044684</v>
+        <v>0.6587456666666667</v>
       </c>
       <c r="N7">
-        <v>0.326699337044684</v>
+        <v>1.976237</v>
       </c>
       <c r="O7">
-        <v>0.3403239071899775</v>
+        <v>0.5224704070286049</v>
       </c>
       <c r="P7">
-        <v>0.3403239071899775</v>
+        <v>0.522470407028605</v>
       </c>
       <c r="Q7">
-        <v>4.390777206872637</v>
+        <v>1.309015033258444</v>
       </c>
       <c r="R7">
-        <v>4.390777206872637</v>
+        <v>11.781135299326</v>
       </c>
       <c r="S7">
-        <v>0.1879094018720316</v>
+        <v>0.03607614795522424</v>
       </c>
       <c r="T7">
-        <v>0.1879094018720316</v>
+        <v>0.03607614795522424</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.540235915598703</v>
+        <v>1.987132666666667</v>
       </c>
       <c r="H8">
-        <v>0.540235915598703</v>
+        <v>5.961398</v>
       </c>
       <c r="I8">
-        <v>0.02219455066008144</v>
+        <v>0.06904917000064482</v>
       </c>
       <c r="J8">
-        <v>0.02219455066008144</v>
+        <v>0.06904917000064482</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.633266537060987</v>
+        <v>0.3997936666666667</v>
       </c>
       <c r="N8">
-        <v>0.633266537060987</v>
+        <v>1.199381</v>
       </c>
       <c r="O8">
-        <v>0.6596760928100225</v>
+        <v>0.3170880209470702</v>
       </c>
       <c r="P8">
-        <v>0.6596760928100225</v>
+        <v>0.3170880209470703</v>
       </c>
       <c r="Q8">
-        <v>0.3421133274671623</v>
+        <v>0.7944430549597777</v>
       </c>
       <c r="R8">
-        <v>0.3421133274671623</v>
+        <v>7.149987494638</v>
       </c>
       <c r="S8">
-        <v>0.01464121446111663</v>
+        <v>0.02189466466354228</v>
       </c>
       <c r="T8">
-        <v>0.01464121446111663</v>
+        <v>0.02189466466354228</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.987132666666667</v>
+      </c>
+      <c r="H9">
+        <v>5.961398</v>
+      </c>
+      <c r="I9">
+        <v>0.06904917000064482</v>
+      </c>
+      <c r="J9">
+        <v>0.06904917000064482</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.05129833333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.153895</v>
+      </c>
+      <c r="O9">
+        <v>0.04068620478701045</v>
+      </c>
+      <c r="P9">
+        <v>0.04068620478701045</v>
+      </c>
+      <c r="Q9">
+        <v>0.1019365939122222</v>
+      </c>
+      <c r="R9">
+        <v>0.91742934521</v>
+      </c>
+      <c r="S9">
+        <v>0.002809348671019334</v>
+      </c>
+      <c r="T9">
+        <v>0.002809348671019334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.540235915598703</v>
-      </c>
-      <c r="H9">
-        <v>0.540235915598703</v>
-      </c>
-      <c r="I9">
-        <v>0.02219455066008144</v>
-      </c>
-      <c r="J9">
-        <v>0.02219455066008144</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.326699337044684</v>
-      </c>
-      <c r="N9">
-        <v>0.326699337044684</v>
-      </c>
-      <c r="O9">
-        <v>0.3403239071899775</v>
-      </c>
-      <c r="P9">
-        <v>0.3403239071899775</v>
-      </c>
-      <c r="Q9">
-        <v>0.1764947154738241</v>
-      </c>
-      <c r="R9">
-        <v>0.1764947154738241</v>
-      </c>
-      <c r="S9">
-        <v>0.007553336198964812</v>
-      </c>
-      <c r="T9">
-        <v>0.007553336198964812</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>15.70994033333333</v>
+      </c>
+      <c r="H10">
+        <v>47.129821</v>
+      </c>
+      <c r="I10">
+        <v>0.5458912527445677</v>
+      </c>
+      <c r="J10">
+        <v>0.5458912527445677</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.150991</v>
+      </c>
+      <c r="N10">
+        <v>0.452973</v>
+      </c>
+      <c r="O10">
+        <v>0.1197553672373143</v>
+      </c>
+      <c r="P10">
+        <v>0.1197553672373143</v>
+      </c>
+      <c r="Q10">
+        <v>2.372059600870334</v>
+      </c>
+      <c r="R10">
+        <v>21.348536407833</v>
+      </c>
+      <c r="S10">
+        <v>0.06537340744406327</v>
+      </c>
+      <c r="T10">
+        <v>0.06537340744406327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>15.70994033333333</v>
+      </c>
+      <c r="H11">
+        <v>47.129821</v>
+      </c>
+      <c r="I11">
+        <v>0.5458912527445677</v>
+      </c>
+      <c r="J11">
+        <v>0.5458912527445677</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.6587456666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.976237</v>
+      </c>
+      <c r="O11">
+        <v>0.5224704070286049</v>
+      </c>
+      <c r="P11">
+        <v>0.522470407028605</v>
+      </c>
+      <c r="Q11">
+        <v>10.34885511817522</v>
+      </c>
+      <c r="R11">
+        <v>93.13969606357701</v>
+      </c>
+      <c r="S11">
+        <v>0.2852120250148094</v>
+      </c>
+      <c r="T11">
+        <v>0.2852120250148094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>15.70994033333333</v>
+      </c>
+      <c r="H12">
+        <v>47.129821</v>
+      </c>
+      <c r="I12">
+        <v>0.5458912527445677</v>
+      </c>
+      <c r="J12">
+        <v>0.5458912527445677</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.3997936666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.199381</v>
+      </c>
+      <c r="O12">
+        <v>0.3170880209470702</v>
+      </c>
+      <c r="P12">
+        <v>0.3170880209470703</v>
+      </c>
+      <c r="Q12">
+        <v>6.280734648977889</v>
+      </c>
+      <c r="R12">
+        <v>56.526611840801</v>
+      </c>
+      <c r="S12">
+        <v>0.1730955769850919</v>
+      </c>
+      <c r="T12">
+        <v>0.1730955769850919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>15.70994033333333</v>
+      </c>
+      <c r="H13">
+        <v>47.129821</v>
+      </c>
+      <c r="I13">
+        <v>0.5458912527445677</v>
+      </c>
+      <c r="J13">
+        <v>0.5458912527445677</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.05129833333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.153895</v>
+      </c>
+      <c r="O13">
+        <v>0.04068620478701045</v>
+      </c>
+      <c r="P13">
+        <v>0.04068620478701045</v>
+      </c>
+      <c r="Q13">
+        <v>0.8058937558661111</v>
+      </c>
+      <c r="R13">
+        <v>7.253043802795</v>
+      </c>
+      <c r="S13">
+        <v>0.02221024330060316</v>
+      </c>
+      <c r="T13">
+        <v>0.02221024330060316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8040576666666667</v>
+      </c>
+      <c r="H14">
+        <v>2.412173</v>
+      </c>
+      <c r="I14">
+        <v>0.02793951075703474</v>
+      </c>
+      <c r="J14">
+        <v>0.02793951075703475</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.150991</v>
+      </c>
+      <c r="N14">
+        <v>0.452973</v>
+      </c>
+      <c r="O14">
+        <v>0.1197553672373143</v>
+      </c>
+      <c r="P14">
+        <v>0.1197553672373143</v>
+      </c>
+      <c r="Q14">
+        <v>0.1214054711476667</v>
+      </c>
+      <c r="R14">
+        <v>1.092649240329</v>
+      </c>
+      <c r="S14">
+        <v>0.003345906371139589</v>
+      </c>
+      <c r="T14">
+        <v>0.003345906371139589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.8040576666666667</v>
+      </c>
+      <c r="H15">
+        <v>2.412173</v>
+      </c>
+      <c r="I15">
+        <v>0.02793951075703474</v>
+      </c>
+      <c r="J15">
+        <v>0.02793951075703475</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6587456666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.976237</v>
+      </c>
+      <c r="O15">
+        <v>0.5224704070286049</v>
+      </c>
+      <c r="P15">
+        <v>0.522470407028605</v>
+      </c>
+      <c r="Q15">
+        <v>0.5296695036667778</v>
+      </c>
+      <c r="R15">
+        <v>4.767025533001</v>
+      </c>
+      <c r="S15">
+        <v>0.01459756755740803</v>
+      </c>
+      <c r="T15">
+        <v>0.01459756755740803</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8040576666666667</v>
+      </c>
+      <c r="H16">
+        <v>2.412173</v>
+      </c>
+      <c r="I16">
+        <v>0.02793951075703474</v>
+      </c>
+      <c r="J16">
+        <v>0.02793951075703475</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.3997936666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.199381</v>
+      </c>
+      <c r="O16">
+        <v>0.3170880209470702</v>
+      </c>
+      <c r="P16">
+        <v>0.3170880209470703</v>
+      </c>
+      <c r="Q16">
+        <v>0.3214571627681111</v>
+      </c>
+      <c r="R16">
+        <v>2.893114464913</v>
+      </c>
+      <c r="S16">
+        <v>0.008859284172177528</v>
+      </c>
+      <c r="T16">
+        <v>0.008859284172177529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8040576666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.412173</v>
+      </c>
+      <c r="I17">
+        <v>0.02793951075703474</v>
+      </c>
+      <c r="J17">
+        <v>0.02793951075703475</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05129833333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.153895</v>
+      </c>
+      <c r="O17">
+        <v>0.04068620478701045</v>
+      </c>
+      <c r="P17">
+        <v>0.04068620478701045</v>
+      </c>
+      <c r="Q17">
+        <v>0.04124681820388889</v>
+      </c>
+      <c r="R17">
+        <v>0.371221363835</v>
+      </c>
+      <c r="S17">
+        <v>0.001136752656309597</v>
+      </c>
+      <c r="T17">
+        <v>0.001136752656309597</v>
       </c>
     </row>
   </sheetData>
